--- a/Code/Results/Cases/Case_4_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.066601954877171</v>
+        <v>6.274549265160829</v>
       </c>
       <c r="C2">
-        <v>1.573829158177034</v>
+        <v>1.119709817049454</v>
       </c>
       <c r="D2">
-        <v>0.1600709752655689</v>
+        <v>0.3414738407473408</v>
       </c>
       <c r="E2">
-        <v>0.018583273911571</v>
+        <v>0.0581337311815362</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008432495021735312</v>
+        <v>0.0027381969358049</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.630334158879606</v>
+        <v>3.906471369855325</v>
       </c>
       <c r="J2">
-        <v>0.03690690633940719</v>
+        <v>0.01233293781549349</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7236707457135623</v>
+        <v>1.035067476419357</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.128987585000985</v>
+        <v>3.519931361770077</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.362954976481262</v>
+        <v>6.154107944431189</v>
       </c>
       <c r="C3">
-        <v>1.372224212835306</v>
+        <v>1.078568762718874</v>
       </c>
       <c r="D3">
-        <v>0.1514121571053977</v>
+        <v>0.3415760845195379</v>
       </c>
       <c r="E3">
-        <v>0.01872153947210453</v>
+        <v>0.05832720957398907</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008568555254260257</v>
+        <v>0.002746303904002672</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.469076006518151</v>
+        <v>3.886125821971802</v>
       </c>
       <c r="J3">
-        <v>0.03169527950426954</v>
+        <v>0.0108928029096127</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6572645896466867</v>
+        <v>1.026592235534807</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.136641754580694</v>
+        <v>3.525171018865962</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.945219548963564</v>
+        <v>6.084097407814625</v>
       </c>
       <c r="C4">
-        <v>1.252493163641589</v>
+        <v>1.054079031881997</v>
       </c>
       <c r="D4">
-        <v>0.1464017449128505</v>
+        <v>0.3417794674237555</v>
       </c>
       <c r="E4">
-        <v>0.01881670766202603</v>
+        <v>0.05845424535653798</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008653752743967133</v>
+        <v>0.002751537759493231</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.376034499558344</v>
+        <v>3.875349539574998</v>
       </c>
       <c r="J4">
-        <v>0.02857431545097455</v>
+        <v>0.01000586258249925</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6181836765343434</v>
+        <v>1.021939671701858</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.144219794603629</v>
+        <v>3.529199036031372</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.778130609716925</v>
+        <v>6.056553422898446</v>
       </c>
       <c r="C5">
-        <v>1.204580777759645</v>
+        <v>1.044291145164493</v>
       </c>
       <c r="D5">
-        <v>0.1444300211989287</v>
+        <v>0.3418976752420946</v>
       </c>
       <c r="E5">
-        <v>0.01885799161001533</v>
+        <v>0.05850809059227569</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008688932396610374</v>
+        <v>0.002753735262990054</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.339462908254433</v>
+        <v>3.871387498263431</v>
       </c>
       <c r="J5">
-        <v>0.02731882306789046</v>
+        <v>0.009643684793143592</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6026351275883144</v>
+        <v>1.02018183778398</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.147974642365568</v>
+        <v>3.531043292702051</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.750563029274076</v>
+        <v>6.05203916328179</v>
       </c>
       <c r="C6">
-        <v>1.196674247913734</v>
+        <v>1.042677405004213</v>
       </c>
       <c r="D6">
-        <v>0.1441066619586522</v>
+        <v>0.341919436479273</v>
       </c>
       <c r="E6">
-        <v>0.01886499577971867</v>
+        <v>0.05851715716240502</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008694803004834649</v>
+        <v>0.002754104069857541</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.333467094993949</v>
+        <v>3.87075547690732</v>
       </c>
       <c r="J6">
-        <v>0.02711124007069543</v>
+        <v>0.0095834987063661</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.600074777364469</v>
+        <v>1.019898278885663</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.148636858750422</v>
+        <v>3.531361747594971</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.942953973010219</v>
+        <v>6.083721954836051</v>
       </c>
       <c r="C7">
-        <v>1.251843615463827</v>
+        <v>1.053946254735251</v>
       </c>
       <c r="D7">
-        <v>0.146374878460108</v>
+        <v>0.3417809186101124</v>
       </c>
       <c r="E7">
-        <v>0.01881725439815707</v>
+        <v>0.05845496311486831</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008654225267064053</v>
+        <v>0.002751567133580028</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.37553603781771</v>
+        <v>3.875294370299699</v>
       </c>
       <c r="J7">
-        <v>0.02855732170840142</v>
+        <v>0.01000098121834725</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6179725158493454</v>
+        <v>1.0219154063236</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.144267804753923</v>
+        <v>3.52922308858362</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.820723148074649</v>
+        <v>6.232199997698899</v>
       </c>
       <c r="C8">
-        <v>1.503383902124142</v>
+        <v>1.105363117636841</v>
       </c>
       <c r="D8">
-        <v>0.1570174472846446</v>
+        <v>0.3414798932076053</v>
       </c>
       <c r="E8">
-        <v>0.01862876267216018</v>
+        <v>0.05819873564103117</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008479093378989432</v>
+        <v>0.002740939209826375</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.573391734750871</v>
+        <v>3.899098778842216</v>
       </c>
       <c r="J8">
-        <v>0.03509127069057172</v>
+        <v>0.01183689790951803</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7003915687067916</v>
+        <v>1.032030488877723</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.130992796059829</v>
+        <v>3.521569044022527</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.679471271069758</v>
+        <v>6.55489330453139</v>
       </c>
       <c r="C9">
-        <v>2.03623340343654</v>
+        <v>1.212407644043765</v>
       </c>
       <c r="D9">
-        <v>0.1806789452869992</v>
+        <v>0.3420069655094693</v>
       </c>
       <c r="E9">
-        <v>0.01834515314546348</v>
+        <v>0.05776141464833762</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008146473320533455</v>
+        <v>0.002722118593607158</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.017056033552009</v>
+        <v>3.959497614228198</v>
       </c>
       <c r="J9">
-        <v>0.04871787332366395</v>
+        <v>0.01541889847289113</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8779871673689854</v>
+        <v>1.0562655446181</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.130791001777737</v>
+        <v>3.51304368885657</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.168762358292611</v>
+        <v>6.811597114005167</v>
       </c>
       <c r="C10">
-        <v>2.464225435502158</v>
+        <v>1.294990338404489</v>
       </c>
       <c r="D10">
-        <v>0.2003668136373449</v>
+        <v>0.3430784786727088</v>
       </c>
       <c r="E10">
-        <v>0.01819728936920617</v>
+        <v>0.05747950781332234</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007904834163076141</v>
+        <v>0.002709506570086607</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.390760233554602</v>
+        <v>4.012389805908256</v>
       </c>
       <c r="J10">
-        <v>0.05953887370743161</v>
+        <v>0.0180440703575897</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.022438799991647</v>
+        <v>1.076792384527039</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.151380972374824</v>
+        <v>3.510805158198195</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.884443841027519</v>
+        <v>6.932730474160053</v>
       </c>
       <c r="C11">
-        <v>2.670385860932697</v>
+        <v>1.333447487769433</v>
       </c>
       <c r="D11">
-        <v>0.2099935508769164</v>
+        <v>0.3437152814320541</v>
       </c>
       <c r="E11">
-        <v>0.01814565897525666</v>
+        <v>0.05735974850729253</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007794413759418041</v>
+        <v>0.002704029442509675</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.575054090001586</v>
+        <v>4.038336054896263</v>
       </c>
       <c r="J11">
-        <v>0.06472734262602842</v>
+        <v>0.01923793211065572</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.092389172680669</v>
+        <v>1.086730537072896</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.166673909402249</v>
+        <v>3.510676810138392</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.16214021185635</v>
+        <v>6.979234164871514</v>
       </c>
       <c r="C12">
-        <v>2.750476276040615</v>
+        <v>1.348140760433068</v>
       </c>
       <c r="D12">
-        <v>0.213753248885979</v>
+        <v>0.343977958964544</v>
       </c>
       <c r="E12">
-        <v>0.01812863962304467</v>
+        <v>0.05731561332024659</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007752414659708544</v>
+        <v>0.002701992532581925</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.647311167230214</v>
+        <v>4.048435085518832</v>
       </c>
       <c r="J12">
-        <v>0.06673991368234056</v>
+        <v>0.0196900471272059</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.119613967723637</v>
+        <v>1.090580893312136</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.173468409329757</v>
+        <v>3.510757506493235</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.10201430705138</v>
+        <v>6.969190499159367</v>
       </c>
       <c r="C13">
-        <v>2.733130601913274</v>
+        <v>1.344970463164543</v>
       </c>
       <c r="D13">
-        <v>0.2129381236255909</v>
+        <v>0.3439204280007147</v>
       </c>
       <c r="E13">
-        <v>0.01813218705825692</v>
+        <v>0.05732506465432685</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000776147023638041</v>
+        <v>0.002702429568838995</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.631631937907571</v>
+        <v>4.046247860706615</v>
       </c>
       <c r="J13">
-        <v>0.06630416817735352</v>
+        <v>0.01959267373235463</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.113715566845201</v>
+        <v>1.089747770429767</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.171957695907821</v>
+        <v>3.510734355132939</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.907148394774936</v>
+        <v>6.93654363418716</v>
       </c>
       <c r="C14">
-        <v>2.67693199011552</v>
+        <v>1.334653684957743</v>
       </c>
       <c r="D14">
-        <v>0.2103004577798231</v>
+        <v>0.3437364601637825</v>
       </c>
       <c r="E14">
-        <v>0.01814420613061607</v>
+        <v>0.05735609315304924</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000779096292129913</v>
+        <v>0.002703861121298052</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.580946548851088</v>
+        <v>4.039161406516627</v>
       </c>
       <c r="J14">
-        <v>0.06489189728928579</v>
+        <v>0.01927512694160072</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.094613396317868</v>
+        <v>1.0870455608692</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.167211801922178</v>
+        <v>3.510680850072163</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.788697505445839</v>
+        <v>6.916629133798892</v>
       </c>
       <c r="C15">
-        <v>2.642784517185873</v>
+        <v>1.328351413289283</v>
       </c>
       <c r="D15">
-        <v>0.2087002851674669</v>
+        <v>0.343626580640219</v>
       </c>
       <c r="E15">
-        <v>0.01815190765324859</v>
+        <v>0.05737525710753921</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000780900012087703</v>
+        <v>0.002704742820408163</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.550235625097329</v>
+        <v>4.034856478468967</v>
       </c>
       <c r="J15">
-        <v>0.06403338768371469</v>
+        <v>0.01908062592163162</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.083012853416562</v>
+        <v>1.085401728525341</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.164440529761606</v>
+        <v>3.510664954886749</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.122855628954653</v>
+        <v>6.803769000367424</v>
       </c>
       <c r="C16">
-        <v>2.451013176516369</v>
+        <v>1.292495185449411</v>
       </c>
       <c r="D16">
-        <v>0.1997526192653254</v>
+        <v>0.343039872405086</v>
       </c>
       <c r="E16">
-        <v>0.01820100068642327</v>
+        <v>0.05748750464301766</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007912031195618556</v>
+        <v>0.002709869726844267</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.379037211297572</v>
+        <v>4.010732319391948</v>
       </c>
       <c r="J16">
-        <v>0.05920591722747304</v>
+        <v>0.01796604815295666</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.017962891371667</v>
+        <v>1.076155040039367</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.15051299455402</v>
+        <v>3.510831566982375</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.724937377139554</v>
+        <v>6.735653597216128</v>
       </c>
       <c r="C17">
-        <v>2.336545472593286</v>
+        <v>1.270728173061343</v>
       </c>
       <c r="D17">
-        <v>0.1944468473015917</v>
+        <v>0.3427182405294644</v>
       </c>
       <c r="E17">
-        <v>0.01823530098476422</v>
+        <v>0.05755853391579313</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007975036251254758</v>
+        <v>0.002713081369909004</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.277941367181242</v>
+        <v>3.996417664958486</v>
       </c>
       <c r="J17">
-        <v>0.05631870894451652</v>
+        <v>0.01728225588049526</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.97922445714525</v>
+        <v>1.070636731937071</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.143584608813399</v>
+        <v>3.511162653755889</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.499576277897063</v>
+        <v>6.696885166978632</v>
       </c>
       <c r="C18">
-        <v>2.271759334780143</v>
+        <v>1.258291973372536</v>
       </c>
       <c r="D18">
-        <v>0.1914569730768818</v>
+        <v>0.3425473018947685</v>
       </c>
       <c r="E18">
-        <v>0.01825648032566862</v>
+        <v>0.05760018666468802</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008011236290468639</v>
+        <v>0.00271495312305698</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.221109881518785</v>
+        <v>3.988361548184301</v>
       </c>
       <c r="J18">
-        <v>0.05468241476837221</v>
+        <v>0.01688891990283281</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9573331408150807</v>
+        <v>1.067519217961632</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.140146703082507</v>
+        <v>3.511436773817081</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.423843562477828</v>
+        <v>6.683829022027453</v>
       </c>
       <c r="C19">
-        <v>2.249994543089201</v>
+        <v>1.254095577088435</v>
       </c>
       <c r="D19">
-        <v>0.1904547934766043</v>
+        <v>0.3424918374226138</v>
       </c>
       <c r="E19">
-        <v>0.0182638929879313</v>
+        <v>0.05761442686884477</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008023489429083858</v>
+        <v>0.002715591082165458</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.202082546747945</v>
+        <v>3.985664256401137</v>
       </c>
       <c r="J19">
-        <v>0.05413231756833881</v>
+        <v>0.01675573453523072</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9499846644768581</v>
+        <v>1.066473360521314</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.139072557963459</v>
+        <v>3.511543919689871</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.766925248722259</v>
+        <v>6.742862144270703</v>
       </c>
       <c r="C20">
-        <v>2.348619357078633</v>
+        <v>1.273036637994096</v>
       </c>
       <c r="D20">
-        <v>0.1950051354387341</v>
+        <v>0.3427510237091411</v>
       </c>
       <c r="E20">
-        <v>0.01823149769816057</v>
+        <v>0.05755089011083703</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007968334021805268</v>
+        <v>0.002712736950961304</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.28856425355454</v>
+        <v>3.997923116202713</v>
       </c>
       <c r="J20">
-        <v>0.05662347418694225</v>
+        <v>0.01735505000183224</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9833070324927178</v>
+        <v>1.071218316034617</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.144264529322669</v>
+        <v>3.511118738151509</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.964193067401084</v>
+        <v>6.946115574317673</v>
       </c>
       <c r="C21">
-        <v>2.69338062123893</v>
+        <v>1.337680414592626</v>
       </c>
       <c r="D21">
-        <v>0.2110719420687985</v>
+        <v>0.3437899110872138</v>
       </c>
       <c r="E21">
-        <v>0.01814060446546373</v>
+        <v>0.05734694639046722</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007782306263302318</v>
+        <v>0.002703439633140118</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.595763321842512</v>
+        <v>4.041235419024844</v>
       </c>
       <c r="J21">
-        <v>0.06530533083147816</v>
+        <v>0.01936839683837377</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.100203042392934</v>
+        <v>1.087836898985756</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.168577182559517</v>
+        <v>3.51069304599929</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.78638802581395</v>
+        <v>7.082646891438685</v>
       </c>
       <c r="C22">
-        <v>2.93072555583899</v>
+        <v>1.380690008891747</v>
       </c>
       <c r="D22">
-        <v>0.2222497822799596</v>
+        <v>0.3445944297800736</v>
       </c>
       <c r="E22">
-        <v>0.01809615281989041</v>
+        <v>0.05722073763406232</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000765957431841706</v>
+        <v>0.002697579776514171</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.81118946115734</v>
+        <v>4.07113940668097</v>
       </c>
       <c r="J22">
-        <v>0.07126424471301362</v>
+        <v>0.02068441954524047</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.180972284101045</v>
+        <v>1.099205489805172</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.190411782413804</v>
+        <v>3.511169116854575</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.34346821655686</v>
+        <v>7.009437403128231</v>
       </c>
       <c r="C23">
-        <v>2.802803649573889</v>
+        <v>1.35766451778494</v>
       </c>
       <c r="D23">
-        <v>0.2162150462776111</v>
+        <v>0.3441535363263313</v>
       </c>
       <c r="E23">
-        <v>0.01811839357136513</v>
+        <v>0.05728745126772372</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000772522847070486</v>
+        <v>0.002700687567035445</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.694710006604936</v>
+        <v>4.055032079398842</v>
       </c>
       <c r="J23">
-        <v>0.06805403605807214</v>
+        <v>0.0199819915782129</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.137414808011187</v>
+        <v>1.093091209869613</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.178155086788024</v>
+        <v>3.510845568128246</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.747932005063149</v>
+        <v>6.739601939574641</v>
       </c>
       <c r="C24">
-        <v>2.343157594949616</v>
+        <v>1.271992738397216</v>
       </c>
       <c r="D24">
-        <v>0.1947525462698394</v>
+        <v>0.3427361589194362</v>
       </c>
       <c r="E24">
-        <v>0.01823321263800115</v>
+        <v>0.05755434332979092</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007971364160345812</v>
+        <v>0.002712892584052288</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.283757658989572</v>
+        <v>3.997241961266269</v>
       </c>
       <c r="J24">
-        <v>0.05648561700392207</v>
+        <v>0.01732214045414793</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9814601259786855</v>
+        <v>1.070955210492485</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.143955449684313</v>
+        <v>3.511138331559181</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.158210554091113</v>
+        <v>6.464180148476089</v>
       </c>
       <c r="C25">
-        <v>1.886698292860444</v>
+        <v>1.18276871857131</v>
       </c>
       <c r="D25">
-        <v>0.1739229981290435</v>
+        <v>0.3417444475173426</v>
       </c>
       <c r="E25">
-        <v>0.01841194723427408</v>
+        <v>0.05787278104055704</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008235657536894246</v>
+        <v>0.002726995433535087</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.889790797427494</v>
+        <v>3.941673770062323</v>
       </c>
       <c r="J25">
-        <v>0.04491541376233954</v>
+        <v>0.01445135385478125</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8278394616928892</v>
+        <v>1.049234337598989</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.127617548989846</v>
+        <v>3.514648474105002</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.274549265160829</v>
+        <v>6.066601954876717</v>
       </c>
       <c r="C2">
-        <v>1.119709817049454</v>
+        <v>1.573829158177148</v>
       </c>
       <c r="D2">
-        <v>0.3414738407473408</v>
+        <v>0.1600709752657679</v>
       </c>
       <c r="E2">
-        <v>0.0581337311815362</v>
+        <v>0.01858327391159187</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0027381969358049</v>
+        <v>0.0008432495022504229</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.906471369855325</v>
+        <v>2.63033415887962</v>
       </c>
       <c r="J2">
-        <v>0.01233293781549349</v>
+        <v>0.036906906339361</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.035067476419357</v>
+        <v>0.7236707457136191</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.519931361770077</v>
+        <v>2.128987585001084</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.154107944431189</v>
+        <v>5.362954976481433</v>
       </c>
       <c r="C3">
-        <v>1.078568762718874</v>
+        <v>1.372224212835533</v>
       </c>
       <c r="D3">
-        <v>0.3415760845195379</v>
+        <v>0.1514121571054048</v>
       </c>
       <c r="E3">
-        <v>0.05832720957398907</v>
+        <v>0.01872153947210453</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002746303904002672</v>
+        <v>0.0008568555255595445</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.886125821971802</v>
+        <v>2.469076006518179</v>
       </c>
       <c r="J3">
-        <v>0.0108928029096127</v>
+        <v>0.03169527950438322</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.026592235534807</v>
+        <v>0.6572645896465588</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.525171018865962</v>
+        <v>2.136641754580708</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.084097407814625</v>
+        <v>4.945219548963621</v>
       </c>
       <c r="C4">
-        <v>1.054079031881997</v>
+        <v>1.252493163641361</v>
       </c>
       <c r="D4">
-        <v>0.3417794674237555</v>
+        <v>0.1464017449129571</v>
       </c>
       <c r="E4">
-        <v>0.05845424535653798</v>
+        <v>0.01881670766200672</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002751537759493231</v>
+        <v>0.0008653752743189317</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.875349539574998</v>
+        <v>2.376034499558344</v>
       </c>
       <c r="J4">
-        <v>0.01000586258249925</v>
+        <v>0.02857431545098521</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.021939671701858</v>
+        <v>0.6181836765343576</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.529199036031372</v>
+        <v>2.144219794603742</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.056553422898446</v>
+        <v>4.778130609717095</v>
       </c>
       <c r="C5">
-        <v>1.044291145164493</v>
+        <v>1.204580777759645</v>
       </c>
       <c r="D5">
-        <v>0.3418976752420946</v>
+        <v>0.1444300211989145</v>
       </c>
       <c r="E5">
-        <v>0.05850809059227569</v>
+        <v>0.01885799161004376</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002753735262990054</v>
+        <v>0.0008688932396486029</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.871387498263431</v>
+        <v>2.339462908254418</v>
       </c>
       <c r="J5">
-        <v>0.009643684793143592</v>
+        <v>0.02731882306807165</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.02018183778398</v>
+        <v>0.6026351275885133</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.531043292702051</v>
+        <v>2.147974642365554</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.05203916328179</v>
+        <v>4.750563029273962</v>
       </c>
       <c r="C6">
-        <v>1.042677405004213</v>
+        <v>1.19667424791345</v>
       </c>
       <c r="D6">
-        <v>0.341919436479273</v>
+        <v>0.1441066619588867</v>
       </c>
       <c r="E6">
-        <v>0.05851715716240502</v>
+        <v>0.01886499577972045</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002754104069857541</v>
+        <v>0.0008694803004138231</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.87075547690732</v>
+        <v>2.333467094993935</v>
       </c>
       <c r="J6">
-        <v>0.0095834987063661</v>
+        <v>0.02711124007063503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.019898278885663</v>
+        <v>0.6000747773643695</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.531361747594971</v>
+        <v>2.148636858750365</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.083721954836051</v>
+        <v>4.942953973010049</v>
       </c>
       <c r="C7">
-        <v>1.053946254735251</v>
+        <v>1.251843615463599</v>
       </c>
       <c r="D7">
-        <v>0.3417809186101124</v>
+        <v>0.1463748784604633</v>
       </c>
       <c r="E7">
-        <v>0.05845496311486831</v>
+        <v>0.0188172543981433</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002751567133580028</v>
+        <v>0.0008654225266891345</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.875294370299699</v>
+        <v>2.375536037817724</v>
       </c>
       <c r="J7">
-        <v>0.01000098121834725</v>
+        <v>0.02855732170865366</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.0219154063236</v>
+        <v>0.6179725158493596</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.52922308858362</v>
+        <v>2.144267804753966</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.232199997698899</v>
+        <v>5.820723148074705</v>
       </c>
       <c r="C8">
-        <v>1.105363117636841</v>
+        <v>1.503383902124767</v>
       </c>
       <c r="D8">
-        <v>0.3414798932076053</v>
+        <v>0.1570174472846162</v>
       </c>
       <c r="E8">
-        <v>0.05819873564103117</v>
+        <v>0.0186287626721211</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002740939209826375</v>
+        <v>0.0008479093378212201</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.899098778842216</v>
+        <v>2.573391734750885</v>
       </c>
       <c r="J8">
-        <v>0.01183689790951803</v>
+        <v>0.03509127069058238</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.032030488877723</v>
+        <v>0.7003915687067916</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.521569044022527</v>
+        <v>2.1309927960599</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.55489330453139</v>
+        <v>7.679471271069872</v>
       </c>
       <c r="C9">
-        <v>1.212407644043765</v>
+        <v>2.036233403436427</v>
       </c>
       <c r="D9">
-        <v>0.3420069655094693</v>
+        <v>0.1806789452871413</v>
       </c>
       <c r="E9">
-        <v>0.05776141464833762</v>
+        <v>0.01834515314542573</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002722118593607158</v>
+        <v>0.0008146473321082315</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.959497614228198</v>
+        <v>3.017056033552024</v>
       </c>
       <c r="J9">
-        <v>0.01541889847289113</v>
+        <v>0.04871787332368882</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.0562655446181</v>
+        <v>0.8779871673688433</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.51304368885657</v>
+        <v>2.130791001777723</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.811597114005167</v>
+        <v>9.168762358292383</v>
       </c>
       <c r="C10">
-        <v>1.294990338404489</v>
+        <v>2.46422543550284</v>
       </c>
       <c r="D10">
-        <v>0.3430784786727088</v>
+        <v>0.200366813637487</v>
       </c>
       <c r="E10">
-        <v>0.05747950781332234</v>
+        <v>0.01819728936933496</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002709506570086607</v>
+        <v>0.0007904834163349203</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.012389805908256</v>
+        <v>3.390760233554602</v>
       </c>
       <c r="J10">
-        <v>0.0180440703575897</v>
+        <v>0.05953887370760214</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.076792384527039</v>
+        <v>1.022438799991619</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.510805158198195</v>
+        <v>2.151380972374795</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.932730474160053</v>
+        <v>9.884443841027519</v>
       </c>
       <c r="C11">
-        <v>1.333447487769433</v>
+        <v>2.670385860932527</v>
       </c>
       <c r="D11">
-        <v>0.3437152814320541</v>
+        <v>0.209993550876959</v>
       </c>
       <c r="E11">
-        <v>0.05735974850729253</v>
+        <v>0.01814565897517051</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002704029442509675</v>
+        <v>0.0007794413761027396</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.038336054896263</v>
+        <v>3.575054090001657</v>
       </c>
       <c r="J11">
-        <v>0.01923793211065572</v>
+        <v>0.06472734262592894</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.086730537072896</v>
+        <v>1.092389172680612</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.510676810138392</v>
+        <v>2.166673909402249</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.979234164871514</v>
+        <v>10.16214021185613</v>
       </c>
       <c r="C12">
-        <v>1.348140760433068</v>
+        <v>2.75047627603999</v>
       </c>
       <c r="D12">
-        <v>0.343977958964544</v>
+        <v>0.2137532488859648</v>
       </c>
       <c r="E12">
-        <v>0.05731561332024659</v>
+        <v>0.01812863962312061</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002701992532581925</v>
+        <v>0.0007752414658581303</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.048435085518832</v>
+        <v>3.647311167230214</v>
       </c>
       <c r="J12">
-        <v>0.0196900471272059</v>
+        <v>0.06673991368234766</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.090580893312136</v>
+        <v>1.119613967723637</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.510757506493235</v>
+        <v>2.173468409329757</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.969190499159367</v>
+        <v>10.10201430705138</v>
       </c>
       <c r="C13">
-        <v>1.344970463164543</v>
+        <v>2.73313060191407</v>
       </c>
       <c r="D13">
-        <v>0.3439204280007147</v>
+        <v>0.2129381236255483</v>
       </c>
       <c r="E13">
-        <v>0.05732506465432685</v>
+        <v>0.01813218705826936</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002702429568838995</v>
+        <v>0.000776147023630497</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.046247860706615</v>
+        <v>3.631631937907542</v>
       </c>
       <c r="J13">
-        <v>0.01959267373235463</v>
+        <v>0.06630416817738194</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.089747770429767</v>
+        <v>1.113715566845116</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.510734355132939</v>
+        <v>2.171957695907849</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.93654363418716</v>
+        <v>9.907148394774936</v>
       </c>
       <c r="C14">
-        <v>1.334653684957743</v>
+        <v>2.676931990115122</v>
       </c>
       <c r="D14">
-        <v>0.3437364601637825</v>
+        <v>0.2103004577798657</v>
       </c>
       <c r="E14">
-        <v>0.05735609315304924</v>
+        <v>0.01814420613062984</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002703861121298052</v>
+        <v>0.0007790962921196033</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.039161406516627</v>
+        <v>3.580946548851088</v>
       </c>
       <c r="J14">
-        <v>0.01927512694160072</v>
+        <v>0.06489189728936395</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.0870455608692</v>
+        <v>1.094613396317754</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.510680850072163</v>
+        <v>2.167211801922207</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.916629133798892</v>
+        <v>9.788697505445953</v>
       </c>
       <c r="C15">
-        <v>1.328351413289283</v>
+        <v>2.642784517186669</v>
       </c>
       <c r="D15">
-        <v>0.343626580640219</v>
+        <v>0.2087002851671826</v>
       </c>
       <c r="E15">
-        <v>0.05737525710753921</v>
+        <v>0.01815190765328145</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002704742820408163</v>
+        <v>0.0007809000119802334</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.034856478468967</v>
+        <v>3.550235625097301</v>
       </c>
       <c r="J15">
-        <v>0.01908062592163162</v>
+        <v>0.06403338768367917</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.085401728525341</v>
+        <v>1.083012853416648</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.510664954886749</v>
+        <v>2.164440529761606</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.803769000367424</v>
+        <v>9.122855628954426</v>
       </c>
       <c r="C16">
-        <v>1.292495185449411</v>
+        <v>2.451013176516028</v>
       </c>
       <c r="D16">
-        <v>0.343039872405086</v>
+        <v>0.1997526192653254</v>
       </c>
       <c r="E16">
-        <v>0.05748750464301766</v>
+        <v>0.01820100068639574</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002709869726844267</v>
+        <v>0.0007912031195635993</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.010732319391948</v>
+        <v>3.379037211297543</v>
       </c>
       <c r="J16">
-        <v>0.01796604815295666</v>
+        <v>0.05920591722757962</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.076155040039367</v>
+        <v>1.017962891371639</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.510831566982375</v>
+        <v>2.150512994553992</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.735653597216128</v>
+        <v>8.724937377139554</v>
       </c>
       <c r="C17">
-        <v>1.270728173061343</v>
+        <v>2.336545472593684</v>
       </c>
       <c r="D17">
-        <v>0.3427182405294644</v>
+        <v>0.1944468473017622</v>
       </c>
       <c r="E17">
-        <v>0.05755853391579313</v>
+        <v>0.01823530098480242</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002713081369909004</v>
+        <v>0.0007975036251780517</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.996417664958486</v>
+        <v>3.277941367181214</v>
       </c>
       <c r="J17">
-        <v>0.01728225588049526</v>
+        <v>0.05631870894467994</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.070636731937071</v>
+        <v>0.9792244571454205</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.511162653755889</v>
+        <v>2.14358460881337</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.696885166978632</v>
+        <v>8.499576277896949</v>
       </c>
       <c r="C18">
-        <v>1.258291973372536</v>
+        <v>2.271759334780427</v>
       </c>
       <c r="D18">
-        <v>0.3425473018947685</v>
+        <v>0.1914569730762707</v>
       </c>
       <c r="E18">
-        <v>0.05760018666468802</v>
+        <v>0.01825648032566551</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00271495312305698</v>
+        <v>0.0008011236291364011</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.988361548184301</v>
+        <v>3.2211098815188</v>
       </c>
       <c r="J18">
-        <v>0.01688891990283281</v>
+        <v>0.05468241476834379</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.067519217961632</v>
+        <v>0.9573331408153081</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.511436773817081</v>
+        <v>2.140146703082564</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.683829022027453</v>
+        <v>8.423843562477828</v>
       </c>
       <c r="C19">
-        <v>1.254095577088435</v>
+        <v>2.249994543088917</v>
       </c>
       <c r="D19">
-        <v>0.3424918374226138</v>
+        <v>0.1904547934766185</v>
       </c>
       <c r="E19">
-        <v>0.05761442686884477</v>
+        <v>0.01826389298785869</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002715591082165458</v>
+        <v>0.0008023489429677118</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.985664256401137</v>
+        <v>3.20208254674796</v>
       </c>
       <c r="J19">
-        <v>0.01675573453523072</v>
+        <v>0.05413231756856618</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.066473360521314</v>
+        <v>0.9499846644769718</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.511543919689871</v>
+        <v>2.139072557963487</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.742862144270703</v>
+        <v>8.766925248721918</v>
       </c>
       <c r="C20">
-        <v>1.273036637994096</v>
+        <v>2.34861935707886</v>
       </c>
       <c r="D20">
-        <v>0.3427510237091411</v>
+        <v>0.1950051354385209</v>
       </c>
       <c r="E20">
-        <v>0.05755089011083703</v>
+        <v>0.01823149769826715</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002712736950961304</v>
+        <v>0.0007968334019405957</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.997923116202713</v>
+        <v>3.28856425355454</v>
       </c>
       <c r="J20">
-        <v>0.01735505000183224</v>
+        <v>0.05662347418694935</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.071218316034617</v>
+        <v>0.9833070324927462</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.511118738151509</v>
+        <v>2.144264529322641</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.946115574317673</v>
+        <v>9.96419306740097</v>
       </c>
       <c r="C21">
-        <v>1.337680414592626</v>
+        <v>2.693380621239726</v>
       </c>
       <c r="D21">
-        <v>0.3437899110872138</v>
+        <v>0.2110719420681164</v>
       </c>
       <c r="E21">
-        <v>0.05734694639046722</v>
+        <v>0.01814060446555832</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002703439633140118</v>
+        <v>0.0007782306263256082</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.041235419024844</v>
+        <v>3.595763321842554</v>
       </c>
       <c r="J21">
-        <v>0.01936839683837377</v>
+        <v>0.06530533083152079</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.087836898985756</v>
+        <v>1.100203042392792</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.51069304599929</v>
+        <v>2.168577182559488</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.082646891438685</v>
+        <v>10.78638802581406</v>
       </c>
       <c r="C22">
-        <v>1.380690008891747</v>
+        <v>2.930725555839388</v>
       </c>
       <c r="D22">
-        <v>0.3445944297800736</v>
+        <v>0.2222497822801444</v>
       </c>
       <c r="E22">
-        <v>0.05722073763406232</v>
+        <v>0.01809615281983312</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002697579776514171</v>
+        <v>0.0007659574316276006</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.07113940668097</v>
+        <v>3.811189461157312</v>
       </c>
       <c r="J22">
-        <v>0.02068441954524047</v>
+        <v>0.07126424471297099</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.099205489805172</v>
+        <v>1.180972284101216</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.511169116854575</v>
+        <v>2.190411782413804</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.009437403128231</v>
+        <v>10.34346821655674</v>
       </c>
       <c r="C23">
-        <v>1.35766451778494</v>
+        <v>2.80280364957423</v>
       </c>
       <c r="D23">
-        <v>0.3441535363263313</v>
+        <v>0.2162150462769858</v>
       </c>
       <c r="E23">
-        <v>0.05728745126772372</v>
+        <v>0.01811839357126654</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002700687567035445</v>
+        <v>0.0007725228470731232</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.055032079398842</v>
+        <v>3.694710006604907</v>
       </c>
       <c r="J23">
-        <v>0.0199819915782129</v>
+        <v>0.06805403605798688</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.093091209869613</v>
+        <v>1.137414808011187</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.510845568128246</v>
+        <v>2.178155086787967</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.739601939574641</v>
+        <v>8.747932005063149</v>
       </c>
       <c r="C24">
-        <v>1.271992738397216</v>
+        <v>2.343157594950355</v>
       </c>
       <c r="D24">
-        <v>0.3427361589194362</v>
+        <v>0.1947525462701378</v>
       </c>
       <c r="E24">
-        <v>0.05755434332979092</v>
+        <v>0.01823321263792299</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002712892584052288</v>
+        <v>0.0007971364159483953</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.997241961266269</v>
+        <v>3.2837576589896</v>
       </c>
       <c r="J24">
-        <v>0.01732214045414793</v>
+        <v>0.05648561700379418</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.070955210492485</v>
+        <v>0.9814601259787423</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.511138331559181</v>
+        <v>2.143955449684313</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.464180148476089</v>
+        <v>7.158210554091113</v>
       </c>
       <c r="C25">
-        <v>1.18276871857131</v>
+        <v>1.886698292859592</v>
       </c>
       <c r="D25">
-        <v>0.3417444475173426</v>
+        <v>0.1739229981287735</v>
       </c>
       <c r="E25">
-        <v>0.05787278104055704</v>
+        <v>0.01841194723430739</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002726995433535087</v>
+        <v>0.0008235657536057016</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.941673770062323</v>
+        <v>2.889790797427494</v>
       </c>
       <c r="J25">
-        <v>0.01445135385478125</v>
+        <v>0.04491541376244967</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.049234337598989</v>
+        <v>0.8278394616928608</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.514648474105002</v>
+        <v>2.127617548989861</v>
       </c>
       <c r="O25">
         <v>0</v>
